--- a/analises/2023/analise_descritiva/dados/aon-plataforma.xlsx
+++ b/analises/2023/analise_descritiva/dados/aon-plataforma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -433,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,11 +467,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -502,13 +526,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>1335</v>
@@ -538,18 +580,36 @@
         <v>679297.6600721752</v>
       </c>
       <c r="L2" s="3">
-        <v>91.30338044842225</v>
-      </c>
-      <c r="M2" s="1">
+        <v>91.85574933975617</v>
+      </c>
+      <c r="M2" s="3">
+        <v>49.08980856017526</v>
+      </c>
+      <c r="N2" s="3">
+        <v>13.93896149503088</v>
+      </c>
+      <c r="O2" s="3">
+        <v>792.0360759681182</v>
+      </c>
+      <c r="P2" s="1">
         <v>263553</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>317.533734939759</v>
       </c>
-      <c r="O2">
+      <c r="R2" s="1">
+        <v>423.019225146675</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>6494</v>
+      </c>
+      <c r="U2">
         <v>2011</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>2023</v>
       </c>
     </row>

--- a/analises/2023/analise_descritiva/dados/aon-plataforma.xlsx
+++ b/analises/2023/analise_descritiva/dados/aon-plataforma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -451,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,14 +485,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -544,13 +564,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>1335</v>
@@ -565,51 +600,66 @@
         <v>0.6217228464419475</v>
       </c>
       <c r="G2" s="3">
+        <v>13973042.60019265</v>
+      </c>
+      <c r="H2" s="3">
+        <v>16834.99108456945</v>
+      </c>
+      <c r="I2" s="3">
+        <v>17015.69760983049</v>
+      </c>
+      <c r="J2" s="3">
+        <v>31.89582864100442</v>
+      </c>
+      <c r="K2" s="3">
+        <v>189313.7035611726</v>
+      </c>
+      <c r="L2" s="3">
         <v>24063279.82732303</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="3">
         <v>28991.90340641329</v>
       </c>
-      <c r="I2" s="3">
+      <c r="N2" s="3">
         <v>44961.93536949201</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="3">
         <v>41.81688448509265</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="3">
         <v>679297.6600721752</v>
       </c>
-      <c r="L2" s="3">
+      <c r="Q2" s="3">
         <v>91.85574933975617</v>
       </c>
-      <c r="M2" s="3">
+      <c r="R2" s="3">
         <v>49.08980856017526</v>
       </c>
-      <c r="N2" s="3">
+      <c r="S2" s="3">
         <v>13.93896149503088</v>
       </c>
-      <c r="O2" s="3">
+      <c r="T2" s="3">
         <v>792.0360759681182</v>
       </c>
-      <c r="P2" s="1">
+      <c r="U2" s="1">
         <v>263553</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="V2" s="1">
         <v>317.533734939759</v>
       </c>
-      <c r="R2" s="1">
-        <v>423.019225146675</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="W2" s="1">
+        <v>423.0192251466749</v>
+      </c>
+      <c r="X2" s="1">
         <v>1</v>
       </c>
-      <c r="T2" s="1">
+      <c r="Y2" s="1">
         <v>6494</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>2011</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>2023</v>
       </c>
     </row>
